--- a/★★★(현재)포트폴리오주소.xlsx
+++ b/★★★(현재)포트폴리오주소.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>홈페이지(html+css)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,163 +68,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>김윤겸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jmh306.dothome.co.kr/kyochon.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://boo1106.dothome.co.kr/yubdduk.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wjm0631.dothome.co.kr/melixir.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lifecykel.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://boo1106.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heiskyeum.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hwkims.dothome.co.kr/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://oheun821.dothome.co.kr/thecaffe_main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://heiskyeum.dothome.co.kr/main2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wjm0631.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://opay.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://madeleine02.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://darksun1111.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://juyoung9168.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://juyoung0360.dothome.co.kr/mega/mega.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://juyoung0360.dothome.co.kr/housebay/bay_main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sitebrew.dothome.co.kr/portfolio.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sitebrew.dothome.co.kr/responsive/responsive_portfolio.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://heiskyeum.dothome.co.kr/portfolio/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://heiskyeum.dothome.co.kr/kyeum_portfolio.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://oheun821.dothome.co.kr/portfolio.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://juyoung0360.dothome.co.kr/portfolio/portfolio.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://oheun821.dothome.co.kr/portfolio/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://boo1106.dothome.co.kr/wyn/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hwkims.dothome.co.kr/portfolio2.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hwkims.github.io/p/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jmh306.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chltjsgp1272.dothome.co.kr/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박보현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://boo1106.dothome.co.kr/port_html/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://juyoung0360.dothome.co.kr/portfolio2/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://arsyux.iptime.org:8080/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hwkims.github.io/html5/app.apk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sitebrew.dothome.co.kr/main.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://boo1106.dothome.co.kr/pbh_portfolio.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wjm0631.dothome.co.kr/portfolio.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>황승현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://kuma0807.dothome.co.kr/dong_a.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kuma0807.cafe24.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>김상민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김윤겸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://kuma0807.dothome.co.kr/dong_a.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jmh306.dothome.co.kr/kyochon.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://boo1106.dothome.co.kr/yubdduk.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://wjm0631.dothome.co.kr/melixir.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://lifecykel.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sitebrew.dothome.co.kr/Fiveguys_main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kuma0807.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://boo1106.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sangmin102.dothome.co.kr/health.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://heiskyeum.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hwkims.dothome.co.kr/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://oheun821.dothome.co.kr/thecaffe_main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://heiskyeum.dothome.co.kr/main2.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wjm0631.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://opay.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://madeleine02.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://darksun1111.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://juyoung9168.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://juyoung0360.dothome.co.kr/mega/mega.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://juyoung0360.dothome.co.kr/housebay/bay_main.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sitebrew.dothome.co.kr/portfolio.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sitebrew.dothome.co.kr/responsive/responsive_portfolio.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://heiskyeum.dothome.co.kr/portfolio/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://heiskyeum.dothome.co.kr/kyeum_portfolio.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://oheun821.dothome.co.kr/portfolio.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://juyoung0360.dothome.co.kr/portfolio/portfolio.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://oheun821.dothome.co.kr/portfolio/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://boo1106.dothome.co.kr/wyn/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://hwkims.dothome.co.kr/portfolio2.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hwkims.github.io/p/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jmh306.cafe24.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chltjsgp1272.dothome.co.kr/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박보현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://boo1106.dothome.co.kr/port_html/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://juyoung0360.dothome.co.kr/portfolio2/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://boo1106.dothome.co.kr/portfolio/portfolio_pbh.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +296,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -321,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,8 +365,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -663,19 +688,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,197 +715,202 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="6"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -892,44 +923,47 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1"/>
-    <hyperlink ref="B12" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B11" r:id="rId5"/>
-    <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="B7" r:id="rId8"/>
-    <hyperlink ref="B3" r:id="rId9"/>
-    <hyperlink ref="B2" r:id="rId10"/>
-    <hyperlink ref="B10" r:id="rId11"/>
-    <hyperlink ref="C15" r:id="rId12"/>
-    <hyperlink ref="C5" r:id="rId13"/>
-    <hyperlink ref="C3" r:id="rId14"/>
-    <hyperlink ref="C11" r:id="rId15"/>
-    <hyperlink ref="C10" r:id="rId16"/>
-    <hyperlink ref="C4" r:id="rId17"/>
-    <hyperlink ref="C14" r:id="rId18"/>
-    <hyperlink ref="C8" r:id="rId19"/>
-    <hyperlink ref="B9" r:id="rId20"/>
-    <hyperlink ref="E7" r:id="rId21"/>
-    <hyperlink ref="D7" r:id="rId22"/>
-    <hyperlink ref="D3" r:id="rId23"/>
-    <hyperlink ref="E3" r:id="rId24"/>
-    <hyperlink ref="E10" r:id="rId25"/>
-    <hyperlink ref="E8" r:id="rId26"/>
-    <hyperlink ref="D8" r:id="rId27"/>
-    <hyperlink ref="D10" r:id="rId28"/>
-    <hyperlink ref="E5" r:id="rId29"/>
-    <hyperlink ref="D5" r:id="rId30"/>
-    <hyperlink ref="E4" r:id="rId31"/>
-    <hyperlink ref="D4" r:id="rId32"/>
-    <hyperlink ref="C12" r:id="rId33"/>
-    <hyperlink ref="B14" r:id="rId34"/>
-    <hyperlink ref="D6" r:id="rId35"/>
+    <hyperlink ref="B12" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId3"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="C3" r:id="rId11"/>
+    <hyperlink ref="C11" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId13"/>
+    <hyperlink ref="C4" r:id="rId14"/>
+    <hyperlink ref="C14" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17"/>
+    <hyperlink ref="E7" r:id="rId18"/>
+    <hyperlink ref="D7" r:id="rId19"/>
+    <hyperlink ref="D3" r:id="rId20"/>
+    <hyperlink ref="E3" r:id="rId21"/>
+    <hyperlink ref="E10" r:id="rId22"/>
+    <hyperlink ref="E8" r:id="rId23"/>
+    <hyperlink ref="D8" r:id="rId24"/>
+    <hyperlink ref="D10" r:id="rId25"/>
+    <hyperlink ref="E5" r:id="rId26"/>
+    <hyperlink ref="D5" r:id="rId27"/>
+    <hyperlink ref="E4" r:id="rId28"/>
+    <hyperlink ref="D4" r:id="rId29"/>
+    <hyperlink ref="C12" r:id="rId30"/>
+    <hyperlink ref="B14" r:id="rId31"/>
+    <hyperlink ref="D6" r:id="rId32"/>
+    <hyperlink ref="F4" r:id="rId33"/>
+    <hyperlink ref="B13" r:id="rId34"/>
+    <hyperlink ref="E11" r:id="rId35"/>
+    <hyperlink ref="B15" r:id="rId36"/>
+    <hyperlink ref="C15" r:id="rId37"/>
+    <hyperlink ref="B2" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId39"/>
 </worksheet>
 </file>
 
